--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.7701622945818</v>
+        <v>25.02674933333333</v>
       </c>
       <c r="H2">
-        <v>14.7701622945818</v>
+        <v>75.080248</v>
       </c>
       <c r="I2">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="J2">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>16.1386464201241</v>
+        <v>25.462917</v>
       </c>
       <c r="N2">
-        <v>16.1386464201241</v>
+        <v>76.388751</v>
       </c>
       <c r="O2">
-        <v>0.9966023041860947</v>
+        <v>0.5673008489332974</v>
       </c>
       <c r="P2">
-        <v>0.9966023041860947</v>
+        <v>0.5673008489332974</v>
       </c>
       <c r="Q2">
-        <v>238.3704268401045</v>
+        <v>637.2540410544719</v>
       </c>
       <c r="R2">
-        <v>238.3704268401045</v>
+        <v>5735.286369490248</v>
       </c>
       <c r="S2">
-        <v>0.03694766097279766</v>
+        <v>0.03283418650792039</v>
       </c>
       <c r="T2">
-        <v>0.03694766097279766</v>
+        <v>0.03283418650792038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.7701622945818</v>
+        <v>25.02674933333333</v>
       </c>
       <c r="H3">
-        <v>14.7701622945818</v>
+        <v>75.080248</v>
       </c>
       <c r="I3">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="J3">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.055021156536995</v>
+        <v>0.103465</v>
       </c>
       <c r="N3">
-        <v>0.055021156536995</v>
+        <v>0.310395</v>
       </c>
       <c r="O3">
-        <v>0.003397695813905276</v>
+        <v>0.002305147612698247</v>
       </c>
       <c r="P3">
-        <v>0.003397695813905276</v>
+        <v>0.002305147612698247</v>
       </c>
       <c r="Q3">
-        <v>0.8126714116870064</v>
+        <v>2.589392619773333</v>
       </c>
       <c r="R3">
-        <v>0.8126714116870064</v>
+        <v>23.30453357796</v>
       </c>
       <c r="S3">
-        <v>0.0001259649034460034</v>
+        <v>0.0001334171221247739</v>
       </c>
       <c r="T3">
-        <v>0.0001259649034460034</v>
+        <v>0.000133417122124774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>137.130047720378</v>
+        <v>25.02674933333333</v>
       </c>
       <c r="H4">
-        <v>137.130047720378</v>
+        <v>75.080248</v>
       </c>
       <c r="I4">
-        <v>0.3442012338240648</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="J4">
-        <v>0.3442012338240648</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.1386464201241</v>
+        <v>19.22962733333333</v>
       </c>
       <c r="N4">
-        <v>16.1386464201241</v>
+        <v>57.688882</v>
       </c>
       <c r="O4">
-        <v>0.9966023041860947</v>
+        <v>0.4284263233026655</v>
       </c>
       <c r="P4">
-        <v>0.9966023041860947</v>
+        <v>0.4284263233026656</v>
       </c>
       <c r="Q4">
-        <v>2213.093353733926</v>
+        <v>481.2550630447484</v>
       </c>
       <c r="R4">
-        <v>2213.093353733926</v>
+        <v>4331.295567402736</v>
       </c>
       <c r="S4">
-        <v>0.3430317427327597</v>
+        <v>0.02479641944952616</v>
       </c>
       <c r="T4">
-        <v>0.3430317427327597</v>
+        <v>0.02479641944952616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>137.130047720378</v>
+        <v>25.02674933333333</v>
       </c>
       <c r="H5">
-        <v>137.130047720378</v>
+        <v>75.080248</v>
       </c>
       <c r="I5">
-        <v>0.3442012338240648</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="J5">
-        <v>0.3442012338240648</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.055021156536995</v>
+        <v>0.08831799999999999</v>
       </c>
       <c r="N5">
-        <v>0.055021156536995</v>
+        <v>0.264954</v>
       </c>
       <c r="O5">
-        <v>0.003397695813905276</v>
+        <v>0.001967680151338943</v>
       </c>
       <c r="P5">
-        <v>0.003397695813905276</v>
+        <v>0.001967680151338943</v>
       </c>
       <c r="Q5">
-        <v>7.545053821548512</v>
+        <v>2.210312447621333</v>
       </c>
       <c r="R5">
-        <v>7.545053821548512</v>
+        <v>19.892812028592</v>
       </c>
       <c r="S5">
-        <v>0.001169491091305056</v>
+        <v>0.0001138852113450518</v>
       </c>
       <c r="T5">
-        <v>0.001169491091305056</v>
+        <v>0.0001138852113450518</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>81.09402437419971</v>
+        <v>138.9376323333333</v>
       </c>
       <c r="H6">
-        <v>81.09402437419971</v>
+        <v>416.812897</v>
       </c>
       <c r="I6">
-        <v>0.203548848041496</v>
+        <v>0.3213129853678317</v>
       </c>
       <c r="J6">
-        <v>0.203548848041496</v>
+        <v>0.3213129853678316</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>16.1386464201241</v>
+        <v>25.462917</v>
       </c>
       <c r="N6">
-        <v>16.1386464201241</v>
+        <v>76.388751</v>
       </c>
       <c r="O6">
-        <v>0.9966023041860947</v>
+        <v>0.5673008489332974</v>
       </c>
       <c r="P6">
-        <v>0.9966023041860947</v>
+        <v>0.5673008489332974</v>
       </c>
       <c r="Q6">
-        <v>1308.747786160135</v>
+        <v>3537.757400280183</v>
       </c>
       <c r="R6">
-        <v>1308.747786160135</v>
+        <v>31839.81660252165</v>
       </c>
       <c r="S6">
-        <v>0.2028572509725802</v>
+        <v>0.1822811293724631</v>
       </c>
       <c r="T6">
-        <v>0.2028572509725802</v>
+        <v>0.182281129372463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>81.09402437419971</v>
+        <v>138.9376323333333</v>
       </c>
       <c r="H7">
-        <v>81.09402437419971</v>
+        <v>416.812897</v>
       </c>
       <c r="I7">
-        <v>0.203548848041496</v>
+        <v>0.3213129853678317</v>
       </c>
       <c r="J7">
-        <v>0.203548848041496</v>
+        <v>0.3213129853678316</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.055021156536995</v>
+        <v>0.103465</v>
       </c>
       <c r="N7">
-        <v>0.055021156536995</v>
+        <v>0.310395</v>
       </c>
       <c r="O7">
-        <v>0.003397695813905276</v>
+        <v>0.002305147612698247</v>
       </c>
       <c r="P7">
-        <v>0.003397695813905276</v>
+        <v>0.002305147612698247</v>
       </c>
       <c r="Q7">
-        <v>4.46188700930773</v>
+        <v>14.37518212936833</v>
       </c>
       <c r="R7">
-        <v>4.46188700930773</v>
+        <v>129.376639164315</v>
       </c>
       <c r="S7">
-        <v>0.0006915970689158322</v>
+        <v>0.000740673861149604</v>
       </c>
       <c r="T7">
-        <v>0.0006915970689158322</v>
+        <v>0.000740673861149604</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>165.406567946345</v>
+        <v>138.9376323333333</v>
       </c>
       <c r="H8">
-        <v>165.406567946345</v>
+        <v>416.812897</v>
       </c>
       <c r="I8">
-        <v>0.4151762922581955</v>
+        <v>0.3213129853678317</v>
       </c>
       <c r="J8">
-        <v>0.4151762922581955</v>
+        <v>0.3213129853678316</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.1386464201241</v>
+        <v>19.22962733333333</v>
       </c>
       <c r="N8">
-        <v>16.1386464201241</v>
+        <v>57.688882</v>
       </c>
       <c r="O8">
-        <v>0.9966023041860947</v>
+        <v>0.4284263233026655</v>
       </c>
       <c r="P8">
-        <v>0.9966023041860947</v>
+        <v>0.4284263233026656</v>
       </c>
       <c r="Q8">
-        <v>2669.438115652295</v>
+        <v>2671.718892345684</v>
       </c>
       <c r="R8">
-        <v>2669.438115652295</v>
+        <v>24045.47003111116</v>
       </c>
       <c r="S8">
-        <v>0.4137656495079571</v>
+        <v>0.1376589409505433</v>
       </c>
       <c r="T8">
-        <v>0.4137656495079571</v>
+        <v>0.1376589409505433</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>165.406567946345</v>
+        <v>138.9376323333333</v>
       </c>
       <c r="H9">
-        <v>165.406567946345</v>
+        <v>416.812897</v>
       </c>
       <c r="I9">
-        <v>0.4151762922581955</v>
+        <v>0.3213129853678317</v>
       </c>
       <c r="J9">
-        <v>0.4151762922581955</v>
+        <v>0.3213129853678316</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.055021156536995</v>
+        <v>0.08831799999999999</v>
       </c>
       <c r="N9">
-        <v>0.055021156536995</v>
+        <v>0.264954</v>
       </c>
       <c r="O9">
-        <v>0.003397695813905276</v>
+        <v>0.001967680151338943</v>
       </c>
       <c r="P9">
-        <v>0.003397695813905276</v>
+        <v>0.001967680151338943</v>
       </c>
       <c r="Q9">
-        <v>9.100860667222948</v>
+        <v>12.27069381241533</v>
       </c>
       <c r="R9">
-        <v>9.100860667222948</v>
+        <v>110.436244311738</v>
       </c>
       <c r="S9">
-        <v>0.001410642750238384</v>
+        <v>0.0006322411836757427</v>
       </c>
       <c r="T9">
-        <v>0.001410642750238384</v>
+        <v>0.0006322411836757427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>98.29468800000001</v>
+      </c>
+      <c r="H10">
+        <v>294.884064</v>
+      </c>
+      <c r="I10">
+        <v>0.2273204107243322</v>
+      </c>
+      <c r="J10">
+        <v>0.2273204107243321</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>25.462917</v>
+      </c>
+      <c r="N10">
+        <v>76.388751</v>
+      </c>
+      <c r="O10">
+        <v>0.5673008489332974</v>
+      </c>
+      <c r="P10">
+        <v>0.5673008489332974</v>
+      </c>
+      <c r="Q10">
+        <v>2502.869482084896</v>
+      </c>
+      <c r="R10">
+        <v>22525.82533876407</v>
+      </c>
+      <c r="S10">
+        <v>0.1289590619837795</v>
+      </c>
+      <c r="T10">
+        <v>0.1289590619837794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>98.29468800000001</v>
+      </c>
+      <c r="H11">
+        <v>294.884064</v>
+      </c>
+      <c r="I11">
+        <v>0.2273204107243322</v>
+      </c>
+      <c r="J11">
+        <v>0.2273204107243321</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.103465</v>
+      </c>
+      <c r="N11">
+        <v>0.310395</v>
+      </c>
+      <c r="O11">
+        <v>0.002305147612698247</v>
+      </c>
+      <c r="P11">
+        <v>0.002305147612698247</v>
+      </c>
+      <c r="Q11">
+        <v>10.17005989392</v>
+      </c>
+      <c r="R11">
+        <v>91.53053904527999</v>
+      </c>
+      <c r="S11">
+        <v>0.0005240071020987791</v>
+      </c>
+      <c r="T11">
+        <v>0.0005240071020987791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>98.29468800000001</v>
+      </c>
+      <c r="H12">
+        <v>294.884064</v>
+      </c>
+      <c r="I12">
+        <v>0.2273204107243322</v>
+      </c>
+      <c r="J12">
+        <v>0.2273204107243321</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>19.22962733333333</v>
+      </c>
+      <c r="N12">
+        <v>57.688882</v>
+      </c>
+      <c r="O12">
+        <v>0.4284263233026655</v>
+      </c>
+      <c r="P12">
+        <v>0.4284263233026656</v>
+      </c>
+      <c r="Q12">
+        <v>1890.170219086272</v>
+      </c>
+      <c r="R12">
+        <v>17011.53197177645</v>
+      </c>
+      <c r="S12">
+        <v>0.09739004777827744</v>
+      </c>
+      <c r="T12">
+        <v>0.09739004777827742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>98.29468800000001</v>
+      </c>
+      <c r="H13">
+        <v>294.884064</v>
+      </c>
+      <c r="I13">
+        <v>0.2273204107243322</v>
+      </c>
+      <c r="J13">
+        <v>0.2273204107243321</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.08831799999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.264954</v>
+      </c>
+      <c r="O13">
+        <v>0.001967680151338943</v>
+      </c>
+      <c r="P13">
+        <v>0.001967680151338943</v>
+      </c>
+      <c r="Q13">
+        <v>8.681190254783999</v>
+      </c>
+      <c r="R13">
+        <v>78.13071229305599</v>
+      </c>
+      <c r="S13">
+        <v>0.0004472938601764845</v>
+      </c>
+      <c r="T13">
+        <v>0.0004472938601764845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>170.1468356666666</v>
+      </c>
+      <c r="H14">
+        <v>510.440507</v>
+      </c>
+      <c r="I14">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="J14">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>25.462917</v>
+      </c>
+      <c r="N14">
+        <v>76.388751</v>
+      </c>
+      <c r="O14">
+        <v>0.5673008489332974</v>
+      </c>
+      <c r="P14">
+        <v>0.5673008489332974</v>
+      </c>
+      <c r="Q14">
+        <v>4332.434754392973</v>
+      </c>
+      <c r="R14">
+        <v>38991.91278953676</v>
+      </c>
+      <c r="S14">
+        <v>0.2232264710691345</v>
+      </c>
+      <c r="T14">
+        <v>0.2232264710691344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>170.1468356666666</v>
+      </c>
+      <c r="H15">
+        <v>510.440507</v>
+      </c>
+      <c r="I15">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="J15">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.103465</v>
+      </c>
+      <c r="N15">
+        <v>0.310395</v>
+      </c>
+      <c r="O15">
+        <v>0.002305147612698247</v>
+      </c>
+      <c r="P15">
+        <v>0.002305147612698247</v>
+      </c>
+      <c r="Q15">
+        <v>17.60424235225166</v>
+      </c>
+      <c r="R15">
+        <v>158.438181170265</v>
+      </c>
+      <c r="S15">
+        <v>0.0009070495273250899</v>
+      </c>
+      <c r="T15">
+        <v>0.0009070495273250899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>170.1468356666666</v>
+      </c>
+      <c r="H16">
+        <v>510.440507</v>
+      </c>
+      <c r="I16">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="J16">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.22962733333333</v>
+      </c>
+      <c r="N16">
+        <v>57.688882</v>
+      </c>
+      <c r="O16">
+        <v>0.4284263233026655</v>
+      </c>
+      <c r="P16">
+        <v>0.4284263233026656</v>
+      </c>
+      <c r="Q16">
+        <v>3271.860241815908</v>
+      </c>
+      <c r="R16">
+        <v>29446.74217634317</v>
+      </c>
+      <c r="S16">
+        <v>0.1685809151243186</v>
+      </c>
+      <c r="T16">
+        <v>0.1685809151243186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>170.1468356666666</v>
+      </c>
+      <c r="H17">
+        <v>510.440507</v>
+      </c>
+      <c r="I17">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="J17">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.08831799999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.264954</v>
+      </c>
+      <c r="O17">
+        <v>0.001967680151338943</v>
+      </c>
+      <c r="P17">
+        <v>0.001967680151338943</v>
+      </c>
+      <c r="Q17">
+        <v>15.02702823240866</v>
+      </c>
+      <c r="R17">
+        <v>135.243254091678</v>
+      </c>
+      <c r="S17">
+        <v>0.0007742598961416641</v>
+      </c>
+      <c r="T17">
+        <v>0.0007742598961416641</v>
       </c>
     </row>
   </sheetData>
